--- a/Code/Results/res_line/loading_percent.xlsx
+++ b/Code/Results/res_line/loading_percent.xlsx
@@ -397,22 +397,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32259254468253</v>
+        <v>26.45474473468804</v>
       </c>
       <c r="C2">
-        <v>19.0084478705716</v>
+        <v>19.98301763691195</v>
       </c>
       <c r="D2">
-        <v>10.08595656559543</v>
+        <v>9.608470124573389</v>
       </c>
       <c r="E2">
-        <v>29.5266545474581</v>
+        <v>31.04085201474251</v>
       </c>
       <c r="F2">
-        <v>64.70355631932713</v>
+        <v>64.35884421662372</v>
       </c>
       <c r="G2">
-        <v>2.00849600607055</v>
+        <v>1.953908501482193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51403714489655</v>
+        <v>24.39025706636723</v>
       </c>
       <c r="C3">
-        <v>17.64609674255312</v>
+        <v>18.42286535524479</v>
       </c>
       <c r="D3">
-        <v>9.481976965035452</v>
+        <v>9.046271437173502</v>
       </c>
       <c r="E3">
-        <v>27.37276877774333</v>
+        <v>28.5200422078386</v>
       </c>
       <c r="F3">
-        <v>60.45765547706793</v>
+        <v>59.87249245163039</v>
       </c>
       <c r="G3">
-        <v>2.017710895652443</v>
+        <v>1.973859922692234</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +443,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.34467773636175</v>
+        <v>23.0808090559364</v>
       </c>
       <c r="C4">
-        <v>16.7666422726503</v>
+        <v>17.43659718660854</v>
       </c>
       <c r="D4">
-        <v>9.100158460528696</v>
+        <v>8.700540211034676</v>
       </c>
       <c r="E4">
-        <v>25.98730785649507</v>
+        <v>26.93634384665265</v>
       </c>
       <c r="F4">
-        <v>57.74613297227818</v>
+        <v>57.06864347951635</v>
       </c>
       <c r="G4">
-        <v>2.023561819628068</v>
+        <v>1.986080327122303</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +466,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8532045327033</v>
+        <v>22.53574997857012</v>
       </c>
       <c r="C5">
-        <v>16.39729629743837</v>
+        <v>17.0267406726613</v>
       </c>
       <c r="D5">
-        <v>8.94180423782692</v>
+        <v>8.559305719775828</v>
       </c>
       <c r="E5">
-        <v>25.40660059579989</v>
+        <v>26.28033279014321</v>
       </c>
       <c r="F5">
-        <v>56.61495707581863</v>
+        <v>55.91230838894545</v>
       </c>
       <c r="G5">
-        <v>2.025996229164682</v>
+        <v>1.991068931395108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.77068909093535</v>
+        <v>22.44452766842327</v>
       </c>
       <c r="C6">
-        <v>16.33530022338281</v>
+        <v>16.9581830204737</v>
       </c>
       <c r="D6">
-        <v>8.915343345491394</v>
+        <v>8.535828122909281</v>
       </c>
       <c r="E6">
-        <v>25.30919285196828</v>
+        <v>26.17071815205762</v>
       </c>
       <c r="F6">
-        <v>56.42554834445468</v>
+        <v>55.71943937821153</v>
       </c>
       <c r="G6">
-        <v>2.026403532279569</v>
+        <v>1.991898232487415</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.33811026078359</v>
+        <v>23.07350566625038</v>
       </c>
       <c r="C7">
-        <v>16.76170572672816</v>
+        <v>17.43110287169673</v>
       </c>
       <c r="D7">
-        <v>9.09803400054664</v>
+        <v>8.698637101494658</v>
       </c>
       <c r="E7">
-        <v>25.9795418760159</v>
+        <v>26.92754166178051</v>
       </c>
       <c r="F7">
-        <v>57.73098344924118</v>
+        <v>57.05310582839252</v>
       </c>
       <c r="G7">
-        <v>2.023594445994699</v>
+        <v>1.986147550576025</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -535,22 +535,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.71113843385095</v>
+        <v>25.75098403624367</v>
       </c>
       <c r="C8">
-        <v>18.54752917315324</v>
+        <v>19.45041620617015</v>
       </c>
       <c r="D8">
-        <v>9.879974172946367</v>
+        <v>9.414584863028699</v>
       </c>
       <c r="E8">
-        <v>28.79688508511754</v>
+        <v>30.17806244765841</v>
       </c>
       <c r="F8">
-        <v>63.26126251927528</v>
+        <v>62.82117101560492</v>
       </c>
       <c r="G8">
-        <v>2.011634246089165</v>
+        <v>1.960804636259673</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -558,22 +558,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.90441654705641</v>
+        <v>30.72213644054367</v>
       </c>
       <c r="C9">
-        <v>21.71621147060975</v>
+        <v>23.23219373604892</v>
       </c>
       <c r="D9">
-        <v>11.32755515148179</v>
+        <v>10.82867192956834</v>
       </c>
       <c r="E9">
-        <v>33.83599534149485</v>
+        <v>36.36066523589525</v>
       </c>
       <c r="F9">
-        <v>73.28108581922858</v>
+        <v>73.83666393618091</v>
       </c>
       <c r="G9">
-        <v>1.989633495003913</v>
+        <v>1.909944502294896</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -581,22 +581,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.71575618441808</v>
+        <v>34.30306532663324</v>
       </c>
       <c r="C10">
-        <v>23.8524831564064</v>
+        <v>25.99022412706221</v>
       </c>
       <c r="D10">
-        <v>12.34222316414634</v>
+        <v>11.90449440365943</v>
       </c>
       <c r="E10">
-        <v>37.26316224133182</v>
+        <v>40.9665039823695</v>
       </c>
       <c r="F10">
-        <v>80.15546892306452</v>
+        <v>82.18300636240427</v>
       </c>
       <c r="G10">
-        <v>1.974237118006693</v>
+        <v>1.870115668277821</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -604,22 +604,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.93898551040061</v>
+        <v>35.95062603113249</v>
       </c>
       <c r="C11">
-        <v>24.78549156770693</v>
+        <v>27.27100633718359</v>
       </c>
       <c r="D11">
-        <v>12.79442062454628</v>
+        <v>12.41350837995414</v>
       </c>
       <c r="E11">
-        <v>38.76772266727298</v>
+        <v>43.14007641209245</v>
       </c>
       <c r="F11">
-        <v>83.18296864296357</v>
+        <v>86.05454118576303</v>
       </c>
       <c r="G11">
-        <v>1.967370189112069</v>
+        <v>1.850854600653212</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -627,22 +627,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.39444421848354</v>
+        <v>36.58156932519756</v>
       </c>
       <c r="C12">
-        <v>25.13347699283474</v>
+        <v>27.76372738115083</v>
       </c>
       <c r="D12">
-        <v>12.96443768227268</v>
+        <v>12.61063343854905</v>
       </c>
       <c r="E12">
-        <v>39.33010683326842</v>
+        <v>43.98302591462848</v>
       </c>
       <c r="F12">
-        <v>84.31571361143071</v>
+        <v>87.54094069246602</v>
       </c>
       <c r="G12">
-        <v>1.964786820785028</v>
+        <v>1.843317915781197</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -650,22 +650,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.29669348323808</v>
+        <v>36.44528005764096</v>
       </c>
       <c r="C13">
-        <v>25.05876459797067</v>
+        <v>27.65718538310031</v>
       </c>
       <c r="D13">
-        <v>12.92787341804525</v>
+        <v>12.56795191632942</v>
       </c>
       <c r="E13">
-        <v>39.20930660529586</v>
+        <v>43.80041610982674</v>
       </c>
       <c r="F13">
-        <v>84.07235476299716</v>
+        <v>87.21970215218437</v>
       </c>
       <c r="G13">
-        <v>1.965342486103893</v>
+        <v>1.844953515981949</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -673,22 +673,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.97661018500649</v>
+        <v>36.00236090079388</v>
       </c>
       <c r="C14">
-        <v>24.81422570496986</v>
+        <v>27.31135913232479</v>
       </c>
       <c r="D14">
-        <v>12.80843165908226</v>
+        <v>12.42962687369127</v>
       </c>
       <c r="E14">
-        <v>38.81413496879362</v>
+        <v>43.20896433468155</v>
       </c>
       <c r="F14">
-        <v>83.27643082047869</v>
+        <v>86.1763462937628</v>
       </c>
       <c r="G14">
-        <v>1.967157329931553</v>
+        <v>1.850239997049363</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -696,22 +696,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.77954837778213</v>
+        <v>35.73214008665551</v>
       </c>
       <c r="C15">
-        <v>24.66375312256865</v>
+        <v>27.10068258074258</v>
       </c>
       <c r="D15">
-        <v>12.73511546509602</v>
+        <v>12.3455263540497</v>
       </c>
       <c r="E15">
-        <v>38.57113731993165</v>
+        <v>42.84959367932806</v>
       </c>
       <c r="F15">
-        <v>82.78714073897461</v>
+        <v>85.54028577133764</v>
       </c>
       <c r="G15">
-        <v>1.968271101227227</v>
+        <v>1.853443565006951</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -719,22 +719,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.63471618019757</v>
+        <v>34.19610134311068</v>
       </c>
       <c r="C16">
-        <v>23.79074936783396</v>
+        <v>25.90734963465283</v>
       </c>
       <c r="D16">
-        <v>12.31249265464731</v>
+        <v>11.8717415300203</v>
       </c>
       <c r="E16">
-        <v>37.16377882921584</v>
+        <v>40.82668297263572</v>
       </c>
       <c r="F16">
-        <v>79.95565982103773</v>
+        <v>81.9321912154732</v>
       </c>
       <c r="G16">
-        <v>1.974688419235113</v>
+        <v>1.871345432898029</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -742,22 +742,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.91831358535508</v>
+        <v>33.26114168139196</v>
       </c>
       <c r="C17">
-        <v>23.24542681275761</v>
+        <v>25.18431080321382</v>
       </c>
       <c r="D17">
-        <v>12.05090828167456</v>
+        <v>11.5870222327142</v>
       </c>
       <c r="E17">
-        <v>36.28677900847217</v>
+        <v>39.61077720923619</v>
       </c>
       <c r="F17">
-        <v>78.19351489517396</v>
+        <v>79.74287829250321</v>
       </c>
       <c r="G17">
-        <v>1.97865847935498</v>
+        <v>1.881988479113279</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -765,22 +765,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.50100186224726</v>
+        <v>32.72478727138691</v>
       </c>
       <c r="C18">
-        <v>22.92810378732295</v>
+        <v>24.77059102457506</v>
       </c>
       <c r="D18">
-        <v>11.89955976097952</v>
+        <v>11.42498362856126</v>
       </c>
       <c r="E18">
-        <v>35.77719338795842</v>
+        <v>38.91812057733346</v>
       </c>
       <c r="F18">
-        <v>77.17054685172386</v>
+        <v>78.48952608427273</v>
       </c>
       <c r="G18">
-        <v>1.980955022458052</v>
+        <v>1.88800861908893</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -788,22 +788,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.35879730547824</v>
+        <v>32.54332287736463</v>
       </c>
       <c r="C19">
-        <v>22.8200263758084</v>
+        <v>24.63078680063853</v>
       </c>
       <c r="D19">
-        <v>11.84815902684346</v>
+        <v>11.37037925868768</v>
       </c>
       <c r="E19">
-        <v>35.60375684946914</v>
+        <v>38.68454520189054</v>
       </c>
       <c r="F19">
-        <v>76.82255080480344</v>
+        <v>78.06592851392085</v>
       </c>
       <c r="G19">
-        <v>1.981734914973681</v>
+        <v>1.890031411841451</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -811,22 +811,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.99511808388052</v>
+        <v>33.36049770428573</v>
       </c>
       <c r="C20">
-        <v>23.30385518836563</v>
+        <v>25.26103313206168</v>
       </c>
       <c r="D20">
-        <v>12.07884586398942</v>
+        <v>11.61714346749329</v>
       </c>
       <c r="E20">
-        <v>36.38066775328742</v>
+        <v>39.739468500288</v>
       </c>
       <c r="F20">
-        <v>78.38206990359609</v>
+        <v>79.97526528953713</v>
       </c>
       <c r="G20">
-        <v>1.978234525709149</v>
+        <v>1.880866477959198</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.07083464025879</v>
+        <v>36.13222122238187</v>
       </c>
       <c r="C21">
-        <v>24.88619506226678</v>
+        <v>27.41268687853435</v>
       </c>
       <c r="D21">
-        <v>12.84354656558506</v>
+        <v>12.4701216544024</v>
       </c>
       <c r="E21">
-        <v>38.93040218729366</v>
+        <v>43.38205995669915</v>
       </c>
       <c r="F21">
-        <v>83.510579218735</v>
+        <v>86.48214984774199</v>
       </c>
       <c r="G21">
-        <v>1.966623828290883</v>
+        <v>1.848694623279632</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -857,22 +857,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.3823898814442</v>
+        <v>37.98846543258432</v>
       </c>
       <c r="C22">
-        <v>25.889447076454</v>
+        <v>28.86725202464817</v>
       </c>
       <c r="D22">
-        <v>13.33628823647276</v>
+        <v>13.05441559444466</v>
       </c>
       <c r="E22">
-        <v>40.55415788859452</v>
+        <v>45.88602514932975</v>
       </c>
       <c r="F22">
-        <v>86.78286721049847</v>
+        <v>90.86188700622137</v>
       </c>
       <c r="G22">
-        <v>1.959133109509433</v>
+        <v>1.826186052946856</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -880,22 +880,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.68641917238558</v>
+        <v>36.99164116594233</v>
       </c>
       <c r="C23">
-        <v>25.35672897163449</v>
+        <v>28.08466851688154</v>
       </c>
       <c r="D23">
-        <v>13.07389711728603</v>
+        <v>12.73938680193742</v>
       </c>
       <c r="E23">
-        <v>39.69126072445754</v>
+        <v>44.53426673963976</v>
       </c>
       <c r="F23">
-        <v>85.04341669614649</v>
+        <v>88.50801497176155</v>
       </c>
       <c r="G23">
-        <v>1.963123096148558</v>
+        <v>1.838371234665552</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -903,22 +903,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.9604117404932</v>
+        <v>33.31557551426668</v>
       </c>
       <c r="C24">
-        <v>23.27745160534685</v>
+        <v>25.22634111863847</v>
       </c>
       <c r="D24">
-        <v>12.06621828315766</v>
+        <v>11.60352062299625</v>
       </c>
       <c r="E24">
-        <v>36.33823746534245</v>
+        <v>39.68126786921518</v>
       </c>
       <c r="F24">
-        <v>78.2968550277055</v>
+        <v>79.8701872753704</v>
       </c>
       <c r="G24">
-        <v>1.978426151025052</v>
+        <v>1.881374036675052</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -926,22 +926,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.81821590779359</v>
+        <v>29.39867052524896</v>
       </c>
       <c r="C25">
-        <v>20.89355712606411</v>
+        <v>22.22059931596984</v>
       </c>
       <c r="D25">
-        <v>10.94486028216291</v>
+        <v>10.44253555012646</v>
       </c>
       <c r="E25">
-        <v>32.52271533380301</v>
+        <v>34.69331165423617</v>
       </c>
       <c r="F25">
-        <v>70.65762150133422</v>
+        <v>70.87185190313302</v>
       </c>
       <c r="G25">
-        <v>1.99544128654325</v>
+        <v>1.923978816841848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_line/loading_percent.xlsx
+++ b/Code/Results/res_line/loading_percent.xlsx
@@ -397,22 +397,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.45474473468804</v>
+        <v>26.45474473468824</v>
       </c>
       <c r="C2">
-        <v>19.98301763691195</v>
+        <v>19.98301763691183</v>
       </c>
       <c r="D2">
-        <v>9.608470124573389</v>
+        <v>9.608470124573502</v>
       </c>
       <c r="E2">
-        <v>31.04085201474251</v>
+        <v>31.04085201474268</v>
       </c>
       <c r="F2">
-        <v>64.35884421662372</v>
+        <v>64.35884421662394</v>
       </c>
       <c r="G2">
-        <v>1.953908501482193</v>
+        <v>1.953908501481924</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.39025706636723</v>
+        <v>24.39025706636733</v>
       </c>
       <c r="C3">
-        <v>18.42286535524479</v>
+        <v>18.42286535524456</v>
       </c>
       <c r="D3">
-        <v>9.046271437173502</v>
+        <v>9.04627143717353</v>
       </c>
       <c r="E3">
-        <v>28.5200422078386</v>
+        <v>28.52004220783866</v>
       </c>
       <c r="F3">
-        <v>59.87249245163039</v>
+        <v>59.8724924516305</v>
       </c>
       <c r="G3">
-        <v>1.973859922692234</v>
+        <v>1.973859922692635</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.0808090559364</v>
+        <v>23.08080905593647</v>
       </c>
       <c r="C4">
-        <v>17.43659718660854</v>
+        <v>17.43659718660874</v>
       </c>
       <c r="D4">
-        <v>8.700540211034676</v>
+        <v>8.700540211034644</v>
       </c>
       <c r="E4">
-        <v>26.93634384665265</v>
+        <v>26.93634384665255</v>
       </c>
       <c r="F4">
-        <v>57.06864347951635</v>
+        <v>57.06864347951639</v>
       </c>
       <c r="G4">
         <v>1.986080327122303</v>
@@ -466,22 +466,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.53574997857012</v>
+        <v>22.53574997857007</v>
       </c>
       <c r="C5">
-        <v>17.0267406726613</v>
+        <v>17.02674067266135</v>
       </c>
       <c r="D5">
-        <v>8.559305719775828</v>
+        <v>8.559305719775818</v>
       </c>
       <c r="E5">
-        <v>26.28033279014321</v>
+        <v>26.28033279014333</v>
       </c>
       <c r="F5">
         <v>55.91230838894545</v>
       </c>
       <c r="G5">
-        <v>1.991068931395108</v>
+        <v>1.991068931395236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.44452766842327</v>
+        <v>22.44452766842334</v>
       </c>
       <c r="C6">
-        <v>16.9581830204737</v>
+        <v>16.95818302047364</v>
       </c>
       <c r="D6">
-        <v>8.535828122909281</v>
+        <v>8.535828122909347</v>
       </c>
       <c r="E6">
-        <v>26.17071815205762</v>
+        <v>26.17071815205772</v>
       </c>
       <c r="F6">
-        <v>55.71943937821153</v>
+        <v>55.71943937821149</v>
       </c>
       <c r="G6">
-        <v>1.991898232487415</v>
+        <v>1.991898232487678</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.07350566625038</v>
+        <v>23.07350566625036</v>
       </c>
       <c r="C7">
-        <v>17.43110287169673</v>
+        <v>17.43110287169682</v>
       </c>
       <c r="D7">
-        <v>8.698637101494658</v>
+        <v>8.698637101494699</v>
       </c>
       <c r="E7">
-        <v>26.92754166178051</v>
+        <v>26.9275416617805</v>
       </c>
       <c r="F7">
-        <v>57.05310582839252</v>
+        <v>57.05310582839241</v>
       </c>
       <c r="G7">
-        <v>1.986147550576025</v>
+        <v>1.986147550576018</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -535,22 +535,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.75098403624367</v>
+        <v>25.75098403624363</v>
       </c>
       <c r="C8">
-        <v>19.45041620617015</v>
+        <v>19.45041620617</v>
       </c>
       <c r="D8">
-        <v>9.414584863028699</v>
+        <v>9.414584863028653</v>
       </c>
       <c r="E8">
-        <v>30.17806244765841</v>
+        <v>30.17806244765843</v>
       </c>
       <c r="F8">
-        <v>62.82117101560492</v>
+        <v>62.82117101560476</v>
       </c>
       <c r="G8">
-        <v>1.960804636259673</v>
+        <v>1.960804636259676</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -558,22 +558,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.72213644054367</v>
+        <v>30.72213644054372</v>
       </c>
       <c r="C9">
-        <v>23.23219373604892</v>
+        <v>23.23219373604878</v>
       </c>
       <c r="D9">
-        <v>10.82867192956834</v>
+        <v>10.8286719295683</v>
       </c>
       <c r="E9">
-        <v>36.36066523589525</v>
+        <v>36.3606652358953</v>
       </c>
       <c r="F9">
-        <v>73.83666393618091</v>
+        <v>73.83666393618077</v>
       </c>
       <c r="G9">
-        <v>1.909944502294896</v>
+        <v>1.909944502294659</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -581,22 +581,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.30306532663324</v>
+        <v>34.30306532663323</v>
       </c>
       <c r="C10">
-        <v>25.99022412706221</v>
+        <v>25.9902241270624</v>
       </c>
       <c r="D10">
-        <v>11.90449440365943</v>
+        <v>11.90449440365939</v>
       </c>
       <c r="E10">
-        <v>40.9665039823695</v>
+        <v>40.96650398236959</v>
       </c>
       <c r="F10">
-        <v>82.18300636240427</v>
+        <v>82.18300636240421</v>
       </c>
       <c r="G10">
-        <v>1.870115668277821</v>
+        <v>1.870115668277306</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -604,22 +604,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.95062603113249</v>
+        <v>35.95062603113253</v>
       </c>
       <c r="C11">
-        <v>27.27100633718359</v>
+        <v>27.27100633718322</v>
       </c>
       <c r="D11">
-        <v>12.41350837995414</v>
+        <v>12.41350837995416</v>
       </c>
       <c r="E11">
-        <v>43.14007641209245</v>
+        <v>43.1400764120925</v>
       </c>
       <c r="F11">
-        <v>86.05454118576303</v>
+        <v>86.05454118576314</v>
       </c>
       <c r="G11">
-        <v>1.850854600653212</v>
+        <v>1.850854600653099</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -627,22 +627,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.58156932519756</v>
+        <v>36.58156932519768</v>
       </c>
       <c r="C12">
-        <v>27.76372738115083</v>
+        <v>27.76372738115114</v>
       </c>
       <c r="D12">
-        <v>12.61063343854905</v>
+        <v>12.61063343854915</v>
       </c>
       <c r="E12">
-        <v>43.98302591462848</v>
+        <v>43.98302591462853</v>
       </c>
       <c r="F12">
-        <v>87.54094069246602</v>
+        <v>87.54094069246615</v>
       </c>
       <c r="G12">
-        <v>1.843317915781197</v>
+        <v>1.843317915781325</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -650,22 +650,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.44528005764096</v>
+        <v>36.44528005764071</v>
       </c>
       <c r="C13">
-        <v>27.65718538310031</v>
+        <v>27.6571853831001</v>
       </c>
       <c r="D13">
-        <v>12.56795191632942</v>
+        <v>12.56795191632939</v>
       </c>
       <c r="E13">
-        <v>43.80041610982674</v>
+        <v>43.80041610982657</v>
       </c>
       <c r="F13">
-        <v>87.21970215218437</v>
+        <v>87.21970215218371</v>
       </c>
       <c r="G13">
-        <v>1.844953515981949</v>
+        <v>1.844953515982057</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -673,22 +673,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.00236090079388</v>
+        <v>36.00236090079362</v>
       </c>
       <c r="C14">
-        <v>27.31135913232479</v>
+        <v>27.31135913232464</v>
       </c>
       <c r="D14">
-        <v>12.42962687369127</v>
+        <v>12.42962687369124</v>
       </c>
       <c r="E14">
-        <v>43.20896433468155</v>
+        <v>43.20896433468154</v>
       </c>
       <c r="F14">
-        <v>86.1763462937628</v>
+        <v>86.17634629376242</v>
       </c>
       <c r="G14">
-        <v>1.850239997049363</v>
+        <v>1.850239997049123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -696,22 +696,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.73214008665551</v>
+        <v>35.73214008665576</v>
       </c>
       <c r="C15">
-        <v>27.10068258074258</v>
+        <v>27.10068258074261</v>
       </c>
       <c r="D15">
-        <v>12.3455263540497</v>
+        <v>12.34552635404985</v>
       </c>
       <c r="E15">
-        <v>42.84959367932806</v>
+        <v>42.84959367932825</v>
       </c>
       <c r="F15">
-        <v>85.54028577133764</v>
+        <v>85.5402857713385</v>
       </c>
       <c r="G15">
-        <v>1.853443565006951</v>
+        <v>1.853443565006685</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -722,19 +722,19 @@
         <v>34.19610134311068</v>
       </c>
       <c r="C16">
-        <v>25.90734963465283</v>
+        <v>25.90734963465308</v>
       </c>
       <c r="D16">
-        <v>11.8717415300203</v>
+        <v>11.87174153002036</v>
       </c>
       <c r="E16">
-        <v>40.82668297263572</v>
+        <v>40.82668297263557</v>
       </c>
       <c r="F16">
-        <v>81.9321912154732</v>
+        <v>81.93219121547311</v>
       </c>
       <c r="G16">
-        <v>1.871345432898029</v>
+        <v>1.871345432898129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -742,22 +742,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.26114168139196</v>
+        <v>33.26114168139185</v>
       </c>
       <c r="C17">
         <v>25.18431080321382</v>
       </c>
       <c r="D17">
-        <v>11.5870222327142</v>
+        <v>11.58702223271418</v>
       </c>
       <c r="E17">
-        <v>39.61077720923619</v>
+        <v>39.61077720923617</v>
       </c>
       <c r="F17">
-        <v>79.74287829250321</v>
+        <v>79.74287829250335</v>
       </c>
       <c r="G17">
-        <v>1.881988479113279</v>
+        <v>1.88198847911317</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -765,22 +765,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.72478727138691</v>
+        <v>32.72478727138682</v>
       </c>
       <c r="C18">
-        <v>24.77059102457506</v>
+        <v>24.77059102457468</v>
       </c>
       <c r="D18">
-        <v>11.42498362856126</v>
+        <v>11.42498362856108</v>
       </c>
       <c r="E18">
-        <v>38.91812057733346</v>
+        <v>38.91812057733331</v>
       </c>
       <c r="F18">
-        <v>78.48952608427273</v>
+        <v>78.48952608427182</v>
       </c>
       <c r="G18">
-        <v>1.88800861908893</v>
+        <v>1.888008619089055</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -788,22 +788,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.54332287736463</v>
+        <v>32.54332287736466</v>
       </c>
       <c r="C19">
-        <v>24.63078680063853</v>
+        <v>24.63078680063852</v>
       </c>
       <c r="D19">
-        <v>11.37037925868768</v>
+        <v>11.37037925868767</v>
       </c>
       <c r="E19">
-        <v>38.68454520189054</v>
+        <v>38.68454520189053</v>
       </c>
       <c r="F19">
-        <v>78.06592851392085</v>
+        <v>78.06592851392062</v>
       </c>
       <c r="G19">
-        <v>1.890031411841451</v>
+        <v>1.890031411841727</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -811,22 +811,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.36049770428573</v>
+        <v>33.36049770428576</v>
       </c>
       <c r="C20">
-        <v>25.26103313206168</v>
+        <v>25.26103313206182</v>
       </c>
       <c r="D20">
-        <v>11.61714346749329</v>
+        <v>11.61714346749328</v>
       </c>
       <c r="E20">
-        <v>39.739468500288</v>
+        <v>39.73946850028794</v>
       </c>
       <c r="F20">
-        <v>79.97526528953713</v>
+        <v>79.97526528953723</v>
       </c>
       <c r="G20">
-        <v>1.880866477959198</v>
+        <v>1.880866477959212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -834,22 +834,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.13222122238187</v>
+        <v>36.13222122238171</v>
       </c>
       <c r="C21">
-        <v>27.41268687853435</v>
+        <v>27.41268687853438</v>
       </c>
       <c r="D21">
-        <v>12.4701216544024</v>
+        <v>12.4701216544023</v>
       </c>
       <c r="E21">
-        <v>43.38205995669915</v>
+        <v>43.38205995669902</v>
       </c>
       <c r="F21">
-        <v>86.48214984774199</v>
+        <v>86.48214984774121</v>
       </c>
       <c r="G21">
-        <v>1.848694623279632</v>
+        <v>1.848694623279612</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -857,22 +857,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.98846543258432</v>
+        <v>37.98846543258428</v>
       </c>
       <c r="C22">
-        <v>28.86725202464817</v>
+        <v>28.86725202464834</v>
       </c>
       <c r="D22">
-        <v>13.05441559444466</v>
+        <v>13.05441559444477</v>
       </c>
       <c r="E22">
-        <v>45.88602514932975</v>
+        <v>45.88602514932987</v>
       </c>
       <c r="F22">
-        <v>90.86188700622137</v>
+        <v>90.86188700622195</v>
       </c>
       <c r="G22">
-        <v>1.826186052946856</v>
+        <v>1.826186052946878</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -880,22 +880,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.99164116594233</v>
+        <v>36.99164116594243</v>
       </c>
       <c r="C23">
-        <v>28.08466851688154</v>
+        <v>28.0846685168817</v>
       </c>
       <c r="D23">
-        <v>12.73938680193742</v>
+        <v>12.73938680193757</v>
       </c>
       <c r="E23">
-        <v>44.53426673963976</v>
+        <v>44.53426673964</v>
       </c>
       <c r="F23">
-        <v>88.50801497176155</v>
+        <v>88.50801497176205</v>
       </c>
       <c r="G23">
-        <v>1.838371234665552</v>
+        <v>1.838371234665287</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -903,22 +903,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.31557551426668</v>
+        <v>33.31557551426664</v>
       </c>
       <c r="C24">
-        <v>25.22634111863847</v>
+        <v>25.22634111863836</v>
       </c>
       <c r="D24">
-        <v>11.60352062299625</v>
+        <v>11.60352062299623</v>
       </c>
       <c r="E24">
-        <v>39.68126786921518</v>
+        <v>39.68126786921513</v>
       </c>
       <c r="F24">
-        <v>79.8701872753704</v>
+        <v>79.87018727537045</v>
       </c>
       <c r="G24">
-        <v>1.881374036675052</v>
+        <v>1.881374036675023</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -929,19 +929,19 @@
         <v>29.39867052524896</v>
       </c>
       <c r="C25">
-        <v>22.22059931596984</v>
+        <v>22.22059931596979</v>
       </c>
       <c r="D25">
-        <v>10.44253555012646</v>
+        <v>10.44253555012653</v>
       </c>
       <c r="E25">
-        <v>34.69331165423617</v>
+        <v>34.69331165423629</v>
       </c>
       <c r="F25">
-        <v>70.87185190313302</v>
+        <v>70.8718519031333</v>
       </c>
       <c r="G25">
-        <v>1.923978816841848</v>
+        <v>1.923978816841718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_line/loading_percent.xlsx
+++ b/Code/Results/res_line/loading_percent.xlsx
@@ -397,22 +397,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.45474473468824</v>
+        <v>26.63325798685757</v>
       </c>
       <c r="C2">
-        <v>19.98301763691183</v>
+        <v>20.18577327641464</v>
       </c>
       <c r="D2">
-        <v>9.608470124573502</v>
+        <v>9.559246152704329</v>
       </c>
       <c r="E2">
-        <v>31.04085201474268</v>
+        <v>31.14262367691273</v>
       </c>
       <c r="F2">
-        <v>64.35884421662394</v>
-      </c>
-      <c r="G2">
-        <v>1.953908501481924</v>
+        <v>64.38719212226439</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +417,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.39025706636733</v>
+        <v>24.55715035356605</v>
       </c>
       <c r="C3">
-        <v>18.42286535524456</v>
+        <v>18.61749802105141</v>
       </c>
       <c r="D3">
-        <v>9.04627143717353</v>
+        <v>8.986421209316706</v>
       </c>
       <c r="E3">
-        <v>28.52004220783866</v>
+        <v>28.60979945593625</v>
       </c>
       <c r="F3">
-        <v>59.8724924516305</v>
-      </c>
-      <c r="G3">
-        <v>1.973859922692635</v>
+        <v>59.85477683859711</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +437,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08080905593647</v>
+        <v>23.24045286489611</v>
       </c>
       <c r="C4">
-        <v>17.43659718660874</v>
+        <v>17.62641602320382</v>
       </c>
       <c r="D4">
-        <v>8.700540211034644</v>
+        <v>8.633786632965759</v>
       </c>
       <c r="E4">
-        <v>26.93634384665255</v>
+        <v>27.01913418473807</v>
       </c>
       <c r="F4">
-        <v>57.06864347951639</v>
-      </c>
-      <c r="G4">
-        <v>1.986080327122303</v>
+        <v>57.02083135916588</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +457,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.53574997857007</v>
+        <v>22.69238705758343</v>
       </c>
       <c r="C5">
-        <v>17.02674067266135</v>
+        <v>17.21462698292319</v>
       </c>
       <c r="D5">
-        <v>8.559305719775818</v>
+        <v>8.489635410448773</v>
       </c>
       <c r="E5">
-        <v>26.28033279014333</v>
+        <v>26.3603534861696</v>
       </c>
       <c r="F5">
-        <v>55.91230838894545</v>
-      </c>
-      <c r="G5">
-        <v>1.991068931395236</v>
+        <v>55.85170098620471</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +477,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.44452766842334</v>
+        <v>22.60066167214228</v>
       </c>
       <c r="C6">
-        <v>16.95818302047364</v>
+        <v>17.14574985284216</v>
       </c>
       <c r="D6">
-        <v>8.535828122909347</v>
+        <v>8.465667045850076</v>
       </c>
       <c r="E6">
-        <v>26.17071815205772</v>
+        <v>26.25028231932399</v>
       </c>
       <c r="F6">
-        <v>55.71943937821149</v>
-      </c>
-      <c r="G6">
-        <v>1.991898232487678</v>
+        <v>55.65667322817751</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +497,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.07350566625036</v>
+        <v>23.23310916715322</v>
       </c>
       <c r="C7">
-        <v>17.43110287169682</v>
+        <v>17.62089554360936</v>
       </c>
       <c r="D7">
-        <v>8.698637101494699</v>
+        <v>8.631844615714128</v>
       </c>
       <c r="E7">
-        <v>26.9275416617805</v>
+        <v>27.01029440467011</v>
       </c>
       <c r="F7">
-        <v>57.05310582839241</v>
-      </c>
-      <c r="G7">
-        <v>1.986147550576018</v>
+        <v>57.00512338858348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -535,22 +517,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.75098403624363</v>
+        <v>25.92549919732948</v>
       </c>
       <c r="C8">
-        <v>19.45041620617</v>
+        <v>19.65032473783255</v>
       </c>
       <c r="D8">
-        <v>9.414584863028653</v>
+        <v>9.361769686793032</v>
       </c>
       <c r="E8">
-        <v>30.17806244765843</v>
+        <v>30.27558314453355</v>
       </c>
       <c r="F8">
-        <v>62.82117101560476</v>
-      </c>
-      <c r="G8">
-        <v>1.960804636259676</v>
+        <v>62.83396488382458</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -558,22 +537,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.72213644054372</v>
+        <v>30.92632268497415</v>
       </c>
       <c r="C9">
-        <v>23.23219373604878</v>
+        <v>23.45430210498422</v>
       </c>
       <c r="D9">
-        <v>10.8286719295683</v>
+        <v>10.80081302373005</v>
       </c>
       <c r="E9">
-        <v>36.3606652358953</v>
+        <v>36.49260448825296</v>
       </c>
       <c r="F9">
-        <v>73.83666393618077</v>
-      </c>
-      <c r="G9">
-        <v>1.909944502294659</v>
+        <v>73.99447652402935</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -581,22 +557,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.30306532663323</v>
+        <v>34.5320429300487</v>
       </c>
       <c r="C10">
-        <v>25.9902241270624</v>
+        <v>26.23233647128255</v>
       </c>
       <c r="D10">
-        <v>11.90449440365939</v>
+        <v>11.89466365938399</v>
       </c>
       <c r="E10">
-        <v>40.96650398236959</v>
+        <v>41.13208948633837</v>
       </c>
       <c r="F10">
-        <v>82.18300636240421</v>
-      </c>
-      <c r="G10">
-        <v>1.870115668277306</v>
+        <v>82.42603018565488</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -604,22 +577,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.95062603113253</v>
+        <v>36.19263792898871</v>
       </c>
       <c r="C11">
-        <v>27.27100633718322</v>
+        <v>27.5240030552951</v>
       </c>
       <c r="D11">
-        <v>12.41350837995416</v>
+        <v>12.4122925282909</v>
       </c>
       <c r="E11">
-        <v>43.1400764120925</v>
+        <v>43.32501224465272</v>
       </c>
       <c r="F11">
-        <v>86.05454118576314</v>
-      </c>
-      <c r="G11">
-        <v>1.850854600653099</v>
+        <v>86.33586460103039</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -627,22 +597,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.58156932519768</v>
+        <v>36.82893876209464</v>
       </c>
       <c r="C12">
-        <v>27.76372738115114</v>
+        <v>28.02125645620742</v>
       </c>
       <c r="D12">
-        <v>12.61063343854915</v>
+        <v>12.6128109504208</v>
       </c>
       <c r="E12">
-        <v>43.98302591462853</v>
+        <v>44.17622836120215</v>
       </c>
       <c r="F12">
-        <v>87.54094069246615</v>
-      </c>
-      <c r="G12">
-        <v>1.843317915781325</v>
+        <v>87.83767042442084</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -650,22 +617,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.44528005764071</v>
+        <v>36.69147300031062</v>
       </c>
       <c r="C13">
-        <v>27.6571853831001</v>
+        <v>27.91371649170022</v>
       </c>
       <c r="D13">
-        <v>12.56795191632939</v>
+        <v>12.56939115153814</v>
       </c>
       <c r="E13">
-        <v>43.80041610982657</v>
+        <v>43.9917880139383</v>
       </c>
       <c r="F13">
-        <v>87.21970215218371</v>
-      </c>
-      <c r="G13">
-        <v>1.844953515982057</v>
+        <v>87.51306421747877</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -673,22 +637,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.00236090079362</v>
+        <v>36.24480375764833</v>
       </c>
       <c r="C14">
-        <v>27.31135913232464</v>
+        <v>27.564719254362</v>
       </c>
       <c r="D14">
-        <v>12.42962687369124</v>
+        <v>12.4286870022011</v>
       </c>
       <c r="E14">
-        <v>43.20896433468154</v>
+        <v>43.39455852141809</v>
       </c>
       <c r="F14">
-        <v>86.17634629376242</v>
-      </c>
-      <c r="G14">
-        <v>1.850239997049123</v>
+        <v>86.45891579297405</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -696,22 +657,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.73214008665576</v>
+        <v>35.97234764720955</v>
       </c>
       <c r="C15">
-        <v>27.10068258074261</v>
+        <v>27.35216011758684</v>
       </c>
       <c r="D15">
-        <v>12.34552635404985</v>
+        <v>12.34314913358997</v>
       </c>
       <c r="E15">
-        <v>42.84959367932825</v>
+        <v>43.03178581065423</v>
       </c>
       <c r="F15">
-        <v>85.5402857713385</v>
-      </c>
-      <c r="G15">
-        <v>1.853443565006685</v>
+        <v>85.81637873854415</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -719,229 +677,199 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.19610134311068</v>
+        <v>34.42427475262114</v>
       </c>
       <c r="C16">
-        <v>25.90734963465308</v>
+        <v>26.14879770244656</v>
       </c>
       <c r="D16">
-        <v>11.87174153002036</v>
+        <v>11.86136134666558</v>
       </c>
       <c r="E16">
-        <v>40.82668297263557</v>
+        <v>40.99111092525528</v>
       </c>
       <c r="F16">
-        <v>81.93219121547311</v>
-      </c>
-      <c r="G16">
-        <v>1.871345432898129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>82.17281059441991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.26114168139185</v>
+        <v>33.48247484732097</v>
       </c>
       <c r="C17">
-        <v>25.18431080321382</v>
+        <v>25.42014666983235</v>
       </c>
       <c r="D17">
-        <v>11.58702223271418</v>
+        <v>11.57187807845387</v>
       </c>
       <c r="E17">
-        <v>39.61077720923617</v>
+        <v>39.76553487779463</v>
       </c>
       <c r="F17">
-        <v>79.74287829250335</v>
-      </c>
-      <c r="G17">
-        <v>1.88198847911317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>79.96283218992548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.72478727138682</v>
+        <v>32.94233758656814</v>
       </c>
       <c r="C18">
-        <v>24.77059102457468</v>
+        <v>25.00335413989913</v>
       </c>
       <c r="D18">
-        <v>11.42498362856108</v>
+        <v>11.40713249335781</v>
       </c>
       <c r="E18">
-        <v>38.91812057733331</v>
+        <v>39.06766714742093</v>
       </c>
       <c r="F18">
-        <v>78.48952608427182</v>
-      </c>
-      <c r="G18">
-        <v>1.888008619089055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>78.69787796285357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.54332287736466</v>
+        <v>32.75961470338164</v>
       </c>
       <c r="C19">
-        <v>24.63078680063852</v>
+        <v>24.86253286472607</v>
       </c>
       <c r="D19">
-        <v>11.37037925868767</v>
+        <v>11.35161568571986</v>
       </c>
       <c r="E19">
-        <v>38.68454520189053</v>
+        <v>38.83238004742995</v>
       </c>
       <c r="F19">
-        <v>78.06592851392062</v>
-      </c>
-      <c r="G19">
-        <v>1.890031411841727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>78.27039167962756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.36049770428576</v>
+        <v>33.58254242507046</v>
       </c>
       <c r="C20">
-        <v>25.26103313206182</v>
+        <v>25.49744952642464</v>
       </c>
       <c r="D20">
-        <v>11.61714346749328</v>
+        <v>11.60250262095069</v>
       </c>
       <c r="E20">
-        <v>39.73946850028794</v>
+        <v>39.89521735009011</v>
       </c>
       <c r="F20">
-        <v>79.97526528953723</v>
-      </c>
-      <c r="G20">
-        <v>1.880866477959212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>80.19738733510785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.13222122238171</v>
+        <v>36.37575223585732</v>
       </c>
       <c r="C21">
-        <v>27.41268687853438</v>
+        <v>27.66696551706704</v>
       </c>
       <c r="D21">
-        <v>12.4701216544023</v>
+        <v>12.46987623766498</v>
       </c>
       <c r="E21">
-        <v>43.38205995669902</v>
+        <v>43.56932164139045</v>
       </c>
       <c r="F21">
-        <v>86.48214984774121</v>
-      </c>
-      <c r="G21">
-        <v>1.848694623279612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>86.76786027665253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.98846543258428</v>
+        <v>38.24867397847844</v>
       </c>
       <c r="C22">
-        <v>28.86725202464834</v>
+        <v>29.13576181305142</v>
       </c>
       <c r="D22">
-        <v>13.05441559444477</v>
+        <v>13.06441522085544</v>
       </c>
       <c r="E22">
-        <v>45.88602514932987</v>
+        <v>46.09974574347756</v>
       </c>
       <c r="F22">
-        <v>90.86188700622195</v>
-      </c>
-      <c r="G22">
-        <v>1.826186052946878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>91.1948450543327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.99164116594243</v>
+        <v>37.24261812171849</v>
       </c>
       <c r="C23">
-        <v>28.0846685168817</v>
+        <v>28.34526668559167</v>
       </c>
       <c r="D23">
-        <v>12.73938680193757</v>
+        <v>12.74380477089929</v>
       </c>
       <c r="E23">
-        <v>44.53426673964</v>
+        <v>44.73313492027705</v>
       </c>
       <c r="F23">
-        <v>88.50801497176205</v>
-      </c>
-      <c r="G23">
-        <v>1.838371234665287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>88.81501884705688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.31557551426664</v>
+        <v>33.53729808585896</v>
       </c>
       <c r="C24">
-        <v>25.22634111863836</v>
+        <v>25.46249458743005</v>
       </c>
       <c r="D24">
-        <v>11.60352062299623</v>
+        <v>11.58865213641202</v>
       </c>
       <c r="E24">
-        <v>39.68126786921513</v>
+        <v>39.83656754358238</v>
       </c>
       <c r="F24">
-        <v>79.87018727537045</v>
-      </c>
-      <c r="G24">
-        <v>1.881374036675023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>80.09132826003913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.39867052524896</v>
+        <v>29.59456201754724</v>
       </c>
       <c r="C25">
-        <v>22.22059931596979</v>
+        <v>22.43627519228249</v>
       </c>
       <c r="D25">
-        <v>10.44253555012653</v>
+        <v>10.40809260008659</v>
       </c>
       <c r="E25">
-        <v>34.69331165423629</v>
+        <v>34.81496834600752</v>
       </c>
       <c r="F25">
-        <v>70.8718519031333</v>
-      </c>
-      <c r="G25">
-        <v>1.923978816841718</v>
+        <v>70.96448088659739</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_line/loading_percent.xlsx
+++ b/Code/Results/res_line/loading_percent.xlsx
@@ -397,19 +397,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.63325798685757</v>
+        <v>26.4234750373145</v>
       </c>
       <c r="C2">
-        <v>20.18577327641464</v>
+        <v>19.99886229031786</v>
       </c>
       <c r="D2">
-        <v>9.559246152704329</v>
+        <v>9.388288595591627</v>
       </c>
       <c r="E2">
-        <v>31.14262367691273</v>
+        <v>30.77377411776597</v>
       </c>
       <c r="F2">
-        <v>64.38719212226439</v>
+        <v>63.56182861480239</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -417,19 +417,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.55715035356605</v>
+        <v>24.38484812770647</v>
       </c>
       <c r="C3">
-        <v>18.61749802105141</v>
+        <v>18.46397124672549</v>
       </c>
       <c r="D3">
-        <v>8.986421209316706</v>
+        <v>8.849519637809431</v>
       </c>
       <c r="E3">
-        <v>28.60979945593625</v>
+        <v>28.31226926357537</v>
       </c>
       <c r="F3">
-        <v>59.85477683859711</v>
+        <v>59.19036081192131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -437,19 +437,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24045286489611</v>
+        <v>23.08887446149555</v>
       </c>
       <c r="C4">
-        <v>17.62641602320382</v>
+        <v>17.49128058524141</v>
       </c>
       <c r="D4">
-        <v>8.633786632965759</v>
+        <v>8.517092694060617</v>
       </c>
       <c r="E4">
-        <v>27.01913418473807</v>
+        <v>26.76069239565595</v>
       </c>
       <c r="F4">
-        <v>57.02083135916588</v>
+        <v>56.45050333521705</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.69238705758343</v>
+        <v>22.5488165671451</v>
       </c>
       <c r="C5">
-        <v>17.21462698292319</v>
+        <v>17.08658420349867</v>
       </c>
       <c r="D5">
-        <v>8.489635410448773</v>
+        <v>8.381070846560407</v>
       </c>
       <c r="E5">
-        <v>26.3603534861696</v>
+        <v>26.11693298543749</v>
       </c>
       <c r="F5">
-        <v>55.85170098620471</v>
+        <v>55.31894217127872</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -477,19 +477,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.60066167214228</v>
+        <v>22.45839791254524</v>
       </c>
       <c r="C6">
-        <v>17.14574985284216</v>
+        <v>17.01886368656673</v>
       </c>
       <c r="D6">
-        <v>8.465667045850076</v>
+        <v>8.358447793206549</v>
       </c>
       <c r="E6">
-        <v>26.25028231932399</v>
+        <v>26.00930803074004</v>
       </c>
       <c r="F6">
-        <v>55.65667322817751</v>
+        <v>55.13011678721339</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -497,19 +497,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.23310916715322</v>
+        <v>23.08164037263802</v>
       </c>
       <c r="C7">
-        <v>17.62089554360936</v>
+        <v>17.48585724081155</v>
       </c>
       <c r="D7">
-        <v>8.631844615714128</v>
+        <v>8.515260655957015</v>
       </c>
       <c r="E7">
-        <v>27.01029440467011</v>
+        <v>26.75205855939405</v>
       </c>
       <c r="F7">
-        <v>57.00512338858348</v>
+        <v>56.43530467096087</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -517,19 +517,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.92549919732948</v>
+        <v>25.72920989287836</v>
       </c>
       <c r="C8">
-        <v>19.65032473783255</v>
+        <v>19.47544971045623</v>
       </c>
       <c r="D8">
-        <v>9.361769686793032</v>
+        <v>9.202748790060806</v>
       </c>
       <c r="E8">
-        <v>30.27558314453355</v>
+        <v>29.93249018775551</v>
       </c>
       <c r="F8">
-        <v>62.83396488382458</v>
+        <v>62.06535951554753</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -537,19 +537,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.92632268497415</v>
+        <v>30.6151209524473</v>
       </c>
       <c r="C9">
-        <v>23.45430210498422</v>
+        <v>23.17640264765306</v>
       </c>
       <c r="D9">
-        <v>10.80081302373005</v>
+        <v>10.54862083012398</v>
       </c>
       <c r="E9">
-        <v>36.49260448825296</v>
+        <v>35.92794154082256</v>
       </c>
       <c r="F9">
-        <v>73.99447652402935</v>
+        <v>72.75185367649347</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -557,19 +557,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.5320429300487</v>
+        <v>34.10049648182896</v>
       </c>
       <c r="C10">
-        <v>26.23233647128255</v>
+        <v>25.84552666713169</v>
       </c>
       <c r="D10">
-        <v>11.89466365938399</v>
+        <v>11.55880171813866</v>
       </c>
       <c r="E10">
-        <v>41.13208948633837</v>
+        <v>40.33092135322983</v>
       </c>
       <c r="F10">
-        <v>82.42603018565488</v>
+        <v>80.76514898864107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -577,19 +577,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.19263792898871</v>
+        <v>35.69037928621933</v>
       </c>
       <c r="C11">
-        <v>27.5240030552951</v>
+        <v>27.07283950664322</v>
       </c>
       <c r="D11">
-        <v>12.4122925282909</v>
+        <v>12.03142000939431</v>
       </c>
       <c r="E11">
-        <v>43.32501224465272</v>
+        <v>42.38294602322394</v>
       </c>
       <c r="F11">
-        <v>86.33586460103039</v>
+        <v>84.44266199602254</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -597,19 +597,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.82893876209464</v>
+        <v>36.29636231448981</v>
       </c>
       <c r="C12">
-        <v>28.02125645620742</v>
+        <v>27.54243372989783</v>
       </c>
       <c r="D12">
-        <v>12.6128109504208</v>
+        <v>12.21335939014254</v>
       </c>
       <c r="E12">
-        <v>44.17622836120215</v>
+        <v>43.17331847737465</v>
       </c>
       <c r="F12">
-        <v>87.83767042442084</v>
+        <v>85.84726717030948</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -617,19 +617,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.69147300031062</v>
+        <v>36.16561187650134</v>
       </c>
       <c r="C13">
-        <v>27.91371649170022</v>
+        <v>27.44102345508451</v>
       </c>
       <c r="D13">
-        <v>12.56939115153814</v>
+        <v>12.17402115518748</v>
       </c>
       <c r="E13">
-        <v>43.9917880139383</v>
+        <v>43.00237729302152</v>
       </c>
       <c r="F13">
-        <v>87.51306421747877</v>
+        <v>85.54407671466608</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -637,19 +637,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.24480375764833</v>
+        <v>35.74013170463823</v>
       </c>
       <c r="C14">
-        <v>27.564719254362</v>
+        <v>27.11135533341069</v>
       </c>
       <c r="D14">
-        <v>12.4286870022011</v>
+        <v>12.04632091510747</v>
       </c>
       <c r="E14">
-        <v>43.39455852141809</v>
+        <v>42.44765844908599</v>
       </c>
       <c r="F14">
-        <v>86.45891579297405</v>
+        <v>84.55792630318818</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -657,19 +657,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.97234764720955</v>
+        <v>35.48014364190327</v>
       </c>
       <c r="C15">
-        <v>27.35216011758684</v>
+        <v>26.91016096761659</v>
       </c>
       <c r="D15">
-        <v>12.34314913358997</v>
+        <v>11.96852738362011</v>
       </c>
       <c r="E15">
-        <v>43.03178581065423</v>
+        <v>42.1098404086239</v>
       </c>
       <c r="F15">
-        <v>85.81637873854415</v>
+        <v>83.95571276964839</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -677,19 +677,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.42427475262114</v>
+        <v>33.99693745489056</v>
       </c>
       <c r="C16">
-        <v>26.14879770244656</v>
+        <v>25.76581099699495</v>
       </c>
       <c r="D16">
-        <v>11.86136134666558</v>
+        <v>11.52826172298007</v>
       </c>
       <c r="E16">
-        <v>40.99111092525528</v>
+        <v>40.19828504984866</v>
       </c>
       <c r="F16">
-        <v>82.17281059441991</v>
+        <v>80.52603259143342</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -697,19 +697,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.48247484732097</v>
+        <v>33.09015736458159</v>
       </c>
       <c r="C17">
-        <v>25.42014666983235</v>
+        <v>25.06893172664895</v>
       </c>
       <c r="D17">
-        <v>11.57187807845387</v>
+        <v>11.26217231165911</v>
       </c>
       <c r="E17">
-        <v>39.76553487779463</v>
+        <v>39.04192034363454</v>
       </c>
       <c r="F17">
-        <v>79.96283218992548</v>
+        <v>78.43472975276252</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -717,19 +717,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.94233758656814</v>
+        <v>32.56876172698243</v>
       </c>
       <c r="C18">
-        <v>25.00335413989913</v>
+        <v>24.66911465548086</v>
       </c>
       <c r="D18">
-        <v>11.40713249335781</v>
+        <v>11.11027157901295</v>
       </c>
       <c r="E18">
-        <v>39.06766714742093</v>
+        <v>38.38094843792835</v>
       </c>
       <c r="F18">
-        <v>78.69787796285357</v>
+        <v>77.23433467117515</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -737,19 +737,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.75961470338164</v>
+        <v>32.39217126398298</v>
       </c>
       <c r="C19">
-        <v>24.86253286472607</v>
+        <v>24.53384343894225</v>
       </c>
       <c r="D19">
-        <v>11.35161568571986</v>
+        <v>11.05901096618923</v>
       </c>
       <c r="E19">
-        <v>38.83238004742995</v>
+        <v>38.15771199574974</v>
       </c>
       <c r="F19">
-        <v>78.27039167962756</v>
+        <v>76.82814258416828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -757,19 +757,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.58254242507046</v>
+        <v>33.18664885298153</v>
       </c>
       <c r="C20">
-        <v>25.49744952642464</v>
+        <v>25.14299322364008</v>
       </c>
       <c r="D20">
-        <v>11.60250262095069</v>
+        <v>11.29037273589011</v>
       </c>
       <c r="E20">
-        <v>39.89521735009011</v>
+        <v>39.16455127020188</v>
       </c>
       <c r="F20">
-        <v>80.19738733510785</v>
+        <v>78.65705230527773</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -777,19 +777,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.37575223585732</v>
+        <v>35.86496630445502</v>
       </c>
       <c r="C21">
-        <v>27.66696551706704</v>
+        <v>27.20802630276621</v>
       </c>
       <c r="D21">
-        <v>12.46987623766498</v>
+        <v>12.08373806170879</v>
       </c>
       <c r="E21">
-        <v>43.56932164139045</v>
+        <v>42.61016862356581</v>
       </c>
       <c r="F21">
-        <v>86.76786027665253</v>
+        <v>84.84718327092956</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -797,19 +797,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.24867397847844</v>
+        <v>37.64089250772431</v>
       </c>
       <c r="C22">
-        <v>29.13576181305142</v>
+        <v>28.58817570060622</v>
       </c>
       <c r="D22">
-        <v>13.06441522085544</v>
+        <v>12.62043690929643</v>
       </c>
       <c r="E22">
-        <v>46.09974574347756</v>
+        <v>44.94478676273031</v>
       </c>
       <c r="F22">
-        <v>91.1948450543327</v>
+        <v>88.96865687882396</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -817,19 +817,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.24261812171849</v>
+        <v>36.68925693826737</v>
       </c>
       <c r="C23">
-        <v>28.34526668559167</v>
+        <v>27.84746056301008</v>
       </c>
       <c r="D23">
-        <v>12.74380477089929</v>
+        <v>12.33183565613295</v>
       </c>
       <c r="E23">
-        <v>44.73313492027705</v>
+        <v>43.68836261057393</v>
       </c>
       <c r="F23">
-        <v>88.81501884705688</v>
+        <v>86.75872425500344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -837,19 +837,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.53729808585896</v>
+        <v>33.14302551706285</v>
       </c>
       <c r="C24">
-        <v>25.46249458743005</v>
+        <v>25.10950764703843</v>
       </c>
       <c r="D24">
-        <v>11.58865213641202</v>
+        <v>11.27762004292854</v>
       </c>
       <c r="E24">
-        <v>39.83656754358238</v>
+        <v>39.10909830811917</v>
       </c>
       <c r="F24">
-        <v>80.09132826003913</v>
+        <v>78.55653480363642</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -857,19 +857,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.59456201754724</v>
+        <v>29.31887174341284</v>
       </c>
       <c r="C25">
-        <v>22.43627519228249</v>
+        <v>22.19033144700976</v>
       </c>
       <c r="D25">
-        <v>10.40809260008659</v>
+        <v>10.18291235798907</v>
       </c>
       <c r="E25">
-        <v>34.81496834600752</v>
+        <v>34.31926875976241</v>
       </c>
       <c r="F25">
-        <v>70.96448088659739</v>
+        <v>69.87664922851232</v>
       </c>
     </row>
   </sheetData>
